--- a/Cofre.xlsx
+++ b/Cofre.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57304\Desktop\Monopoly\Juego\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57304\Documents\NewMonopoly\valesVg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE980A49-74C1-47DF-A8B3-171935F76CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AEEB33-4023-4BDF-A74B-504FB61D85D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>"Cartel Funds" Collect $100</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Jail</t>
-  </si>
-  <si>
-    <t>"Get out of jail Free"</t>
   </si>
   <si>
     <t>"Advance 4 steps"</t>
@@ -914,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -927,13 +924,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -1040,10 +1037,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -1051,10 +1048,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -1065,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -1076,17 +1073,6 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
         <v>75</v>
       </c>
     </row>
